--- a/LGD_2006/LGD-2006_poly_rem.xlsx
+++ b/LGD_2006/LGD-2006_poly_rem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Data\Sorting data\LGD_2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\LGD_2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05934D32-A772-4C82-81D2-B2914D66F1FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7802F-D673-4C27-BAFF-A1E6D97BFBBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9750" xr2:uid="{30E21FE3-1E8D-44C0-AFAC-A7C32A389165}"/>
   </bookViews>
@@ -508,8 +508,8 @@
   <dimension ref="A1:Q782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O752" sqref="O752"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4253,7 +4253,7 @@
         <v>25</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M143">
         <v>1</v>
